--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_c.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/training/training_act13d5_01_c.xlsx
@@ -60,19 +60,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_mm")] Eh? Instructor, what’s that weird thing with the suspicious aura?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That is a Mieszko Coil. &lt;@tu.kw&gt;It doesn’t have any effect by itself&lt;/&gt;. When there are other Coils in range, connected Coils become &lt;@tu.kw&gt;Activated&lt;/&gt;. Activated Coils generate electric currents between them to attack enemies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try deploying new Mieszko Coils to expand your terrain advantage. That’s called tactics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_scave")] It’s up to you now, Doctor.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_mm")] Eh? Instructor, what's that weird thing with the suspicious aura?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is a Mieszko Coil. &lt;@tu.kw&gt;It doesn't have any effect by itself&lt;/&gt;. When there are other Coils in range, connected Coils become &lt;@tu.kw&gt;Activated&lt;/&gt;. Activated Coils generate electric currents between them to attack enemies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try deploying new Mieszko Coils to expand your terrain advantage. That's called tactics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_scave")] It's up to you now, Doctor.
 </t>
   </si>
   <si>
